--- a/Bot_screening/volatility.xlsx
+++ b/Bot_screening/volatility.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>ripple</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ripple</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -498,1087 +498,1087 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44780</v>
+        <v>44781</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007748313492751369</v>
+        <v>0.04259880332448195</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0007827650366343773</v>
+        <v>0.02076750999915952</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.006748314493751396</v>
+        <v>-0.04126703206871172</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.007039811873604971</v>
+        <v>-0.0415657372002417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01110239144179045</v>
+        <v>-0.01524985675392855</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.007748313492751369</v>
+        <v>-0.04112864513225573</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.00382024338825307</v>
+        <v>-0.01254341131744668</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.003408694887204824</v>
+        <v>-0.002497694015268496</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.000575422075486982</v>
+        <v>0.02308385350208636</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01675577052125086</v>
+        <v>0.03832605216684745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04392499524130777</v>
+        <v>0.04532958922474718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01944131808233369</v>
+        <v>0.02293001992098078</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04259322398553755</v>
+        <v>-0.04532958922474718</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04289192911706752</v>
+        <v>-0.03532958922474717</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01495251135434705</v>
+        <v>-0.005515242167409604</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04245483704908156</v>
+        <v>-0.04358454936531202</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004244295493124335</v>
+        <v>0.008370684991757485</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01386960323427251</v>
+        <v>0.02414311355376594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02175766158526053</v>
+        <v>0.02787758208999399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03699986025002162</v>
+        <v>0.02454440848430201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04532958922474718</v>
+        <v>0.05399177344150798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02293001992098078</v>
+        <v>0.05101289263491994</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.04532958922474718</v>
+        <v>-0.05041200440535604</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03532958922474717</v>
+        <v>-0.04848663279647642</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.005515242167409604</v>
+        <v>0.009871697413065747</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04358454936531202</v>
+        <v>-0.03953220919708955</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02414311355376594</v>
+        <v>-0.002391828850844442</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008370684991757485</v>
+        <v>0.008693645526457947</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02787758208999399</v>
+        <v>0.02148471956992783</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02454440848430201</v>
+        <v>0.06228729632593388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05399177344150798</v>
+        <v>0.04708324590319287</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05101289263491994</v>
+        <v>0.01097783461702913</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05041200440535604</v>
+        <v>-0.03672557928921154</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04848663279647642</v>
+        <v>-0.0462415380268689</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009871697413065747</v>
+        <v>-0.01787875290426993</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03953220919708955</v>
+        <v>-0.04325665895374153</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008693645526457947</v>
+        <v>-0.02413381851091341</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.002391828850844442</v>
+        <v>-0.01784548578739528</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02148471956992783</v>
+        <v>0.03778135757843184</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06228729632593388</v>
+        <v>-0.008248294446882055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04708324590319287</v>
+        <v>0.02345491120713121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01097783461702913</v>
+        <v>-0.0006895787155712582</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03672557928921154</v>
+        <v>-0.02166671928454936</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0462415380268689</v>
+        <v>-0.02057262752382535</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01787875290426993</v>
+        <v>0.001463696356104389</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04325665895374153</v>
+        <v>-0.02162557083160551</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01784548578739528</v>
+        <v>0.001357832923014324</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02413381851091341</v>
+        <v>0.001398850963476309</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03778135757843184</v>
+        <v>0.007920413161823694</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.008248294446882055</v>
+        <v>0.01057362885873054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44785</v>
+        <v>44786</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02345491120713121</v>
+        <v>0.02706253219019172</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0006895787155712582</v>
+        <v>0.01471088010897953</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02166671928454936</v>
+        <v>-0.02624586579040946</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02057262752382535</v>
+        <v>-0.02628693109934635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001463696356104389</v>
+        <v>-0.005373632347312945</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02162557083160551</v>
+        <v>-0.02522817347939222</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001398850963476309</v>
+        <v>-0.008039591905866658</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001357832923014324</v>
+        <v>0.02205228485711474</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007920413161823694</v>
+        <v>0.04934196219183072</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01057362885873054</v>
+        <v>-0.006763386891046282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02706253219019172</v>
+        <v>0.02805078285225059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01471088010897953</v>
+        <v>0.01939333966430573</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02624586579040946</v>
+        <v>-0.02738333766631159</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02628693109934635</v>
+        <v>-0.02761559354490193</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005373632347312945</v>
+        <v>0.01064511513129107</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02522817347939222</v>
+        <v>-0.0226669524403951</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02205228485711474</v>
+        <v>0.006034280762122111</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.008039591905866658</v>
+        <v>0.03252601148513213</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04934196219183072</v>
+        <v>0.03768317228876653</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.006763386891046282</v>
+        <v>0.03898832329300098</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44787</v>
+        <v>44788</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02805078285225059</v>
+        <v>0.04139137274900623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01939333966430573</v>
+        <v>0.02213977460059022</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02738333766631159</v>
+        <v>-0.0305938535063237</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02761559354490193</v>
+        <v>-0.04020296210557242</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01064511513129107</v>
+        <v>-0.01027759424120402</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0226669524403951</v>
+        <v>-0.03976774084168447</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03252601148513213</v>
+        <v>-0.002345561198788447</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006034280762122111</v>
+        <v>0.009082983094750398</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03768317228876653</v>
+        <v>0.0290891764500784</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03898832329300098</v>
+        <v>0.02489434153670807</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04139137274900623</v>
+        <v>0.0190395866089182</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02213977460059022</v>
+        <v>0.003839294629863401</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0305938535063237</v>
+        <v>-0.01791833080241491</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04020296210557242</v>
+        <v>-0.01707674139514438</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01027759424120402</v>
+        <v>0.007588765881503354</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03976774084168447</v>
+        <v>-0.01530166659478563</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009082983094750398</v>
+        <v>-0.004004398729576159</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002345561198788447</v>
+        <v>0.01243063918178487</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0290891764500784</v>
+        <v>0.005884708755628739</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02489434153670807</v>
+        <v>-0.0006487820112170382</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0190395866089182</v>
+        <v>0.04548764168765747</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003839294629863401</v>
+        <v>0.025451175432368</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01791833080241491</v>
+        <v>-0.0451475260483401</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01707674139514438</v>
+        <v>-0.04354085908906838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007588765881503354</v>
+        <v>0.005244797710730879</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01530166659478563</v>
+        <v>-0.04052412688806224</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01243063918178487</v>
+        <v>-0.001878938211262809</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004004398729576159</v>
+        <v>0.04019351838411661</v>
       </c>
       <c r="J11" t="n">
-        <v>0.005884708755628739</v>
+        <v>0.03855620727701983</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0006487820112170382</v>
+        <v>0.04781379371904124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04548764168765747</v>
+        <v>0.01125241109289571</v>
       </c>
       <c r="C12" t="n">
-        <v>0.025451175432368</v>
+        <v>0.01192119456303518</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0451475260483401</v>
+        <v>-0.009873512349325849</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04354085908906838</v>
+        <v>-0.009635801885635183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.005244797710730879</v>
+        <v>0.01201493200126439</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04052412688806224</v>
+        <v>-0.009411026628249679</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04019351838411661</v>
+        <v>0.01496205535948089</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.001878938211262809</v>
+        <v>0.01875750061144373</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03855620727701983</v>
+        <v>0.01568111991772954</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04781379371904124</v>
+        <v>0.01027868938557316</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01125241109289571</v>
+        <v>0.09520730566452684</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01192119456303518</v>
+        <v>0.01290191869618733</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.009873512349325849</v>
+        <v>-0.09313602432600007</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.009635801885635183</v>
+        <v>-0.09159732054806297</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01201493200126439</v>
+        <v>-0.01272537194910213</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.009411026628249679</v>
+        <v>-0.07395296022728695</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01875750061144373</v>
+        <v>0.02942547907706898</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01496205535948089</v>
+        <v>0.0493312146311129</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01568111991772954</v>
+        <v>0.04125678273326314</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01027868938557316</v>
+        <v>0.03767860037574153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09520730566452684</v>
+        <v>0.02274677107567459</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01290191869618733</v>
+        <v>0.05015614654949668</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.09313602432600007</v>
+        <v>-0.02094452884189603</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.09159732054806297</v>
+        <v>-0.02116627705611175</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01272537194910213</v>
+        <v>0.007898274999044975</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07395296022728695</v>
+        <v>-0.02025759044015658</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0493312146311129</v>
+        <v>-0.001635455243970768</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02942547907706898</v>
+        <v>0.02937050739894166</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04125678273326314</v>
+        <v>0.02109573101871246</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03767860037574153</v>
+        <v>0.01017503962391392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02274677107567459</v>
+        <v>0.02367306681695975</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05015614654949668</v>
+        <v>0.02209015684653955</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02094452884189603</v>
+        <v>-0.02225606175479673</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.02116627705611175</v>
+        <v>-0.02207250912576924</v>
       </c>
       <c r="F15" t="n">
-        <v>0.007898274999044975</v>
+        <v>0.04787584525243831</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02025759044015658</v>
+        <v>-0.02305969081747209</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02937050739894166</v>
+        <v>0.003406213915592409</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.001635455243970768</v>
+        <v>0.03100393926704242</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02109573101871246</v>
+        <v>0.0334780791070321</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01017503962391392</v>
+        <v>0.02717439081015894</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02367306681695975</v>
+        <v>0.02900317583585773</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02209015684653955</v>
+        <v>0.01705896405276069</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02225606175479673</v>
+        <v>-0.02483083977954373</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02207250912576924</v>
+        <v>-0.02766839657510312</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04787584525243831</v>
+        <v>0.01087728582943498</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02305969081747209</v>
+        <v>-0.01539167806931555</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03100393926704242</v>
+        <v>0.009389244191128347</v>
       </c>
       <c r="I16" t="n">
-        <v>0.003406213915592409</v>
+        <v>0.02947892974561219</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0334780791070321</v>
+        <v>0.05019027828453972</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02717439081015894</v>
+        <v>0.02015412753492873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02900317583585773</v>
+        <v>0.02594657934108236</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01705896405276069</v>
+        <v>0.03669859557269259</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02483083977954373</v>
+        <v>-0.02421759511430694</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02766839657510312</v>
+        <v>-0.02481830777903194</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01087728582943498</v>
+        <v>-0.006516615222200744</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01539167806931555</v>
+        <v>-0.01425807122102996</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02947892974561219</v>
+        <v>0.008652314736379948</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009389244191128347</v>
+        <v>0.01109905684639168</v>
       </c>
       <c r="J17" t="n">
-        <v>0.05019027828453972</v>
+        <v>0.01586526734881325</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02015412753492873</v>
+        <v>0.0435944498661499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02594657934108236</v>
+        <v>0.02422619729558611</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03669859557269259</v>
+        <v>0.01830538556297226</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02421759511430694</v>
+        <v>-0.02249018879285089</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02481830777903194</v>
+        <v>-0.02345259930433885</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.006516615222200744</v>
+        <v>-0.009412637973552199</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01425807122102996</v>
+        <v>-0.02085788988761751</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01109905684639168</v>
+        <v>-0.002433490905232566</v>
       </c>
       <c r="I18" t="n">
-        <v>0.008652314736379948</v>
+        <v>-9.398029308792244e-06</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01586526734881325</v>
+        <v>0.01676687429794742</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0435944498661499</v>
+        <v>0.01062634962130394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02422619729558611</v>
+        <v>0.01682878272490538</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01830538556297226</v>
+        <v>0.01694273168439478</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.02249018879285089</v>
+        <v>-0.01637357560566614</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02345259930433885</v>
+        <v>-0.01652669149335342</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.009412637973552199</v>
+        <v>0.01295098861501565</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02085788988761751</v>
+        <v>-0.01525531080051216</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.398029308792244e-06</v>
+        <v>-0.000740442797674136</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.002433490905232566</v>
+        <v>0.004651534432969395</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01676687429794742</v>
+        <v>0.02004943339859395</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01062634962130394</v>
+        <v>0.009731642241894115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01682878272490538</v>
+        <v>0.05091786617742151</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01694273168439478</v>
+        <v>0.04564216663299584</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01637357560566614</v>
+        <v>-0.05010921278548078</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.01652669149335342</v>
+        <v>-0.04904938145341122</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01295098861501565</v>
+        <v>0.01126229505636751</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01525531080051216</v>
+        <v>-0.03980361827623434</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004651534432969395</v>
+        <v>0.04381082565173921</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.000740442797674136</v>
+        <v>0.03209245958488383</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02004943339859395</v>
+        <v>0.03847607321651798</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009731642241894115</v>
+        <v>0.02232157044229687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05091786617742151</v>
+        <v>0.03588366101409635</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04564216663299584</v>
+        <v>0.02714518153973237</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05010921278548078</v>
+        <v>-0.03512107992730817</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.04904938145341122</v>
+        <v>-0.03431319852891958</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01126229505636751</v>
+        <v>-0.002907509193913839</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.03980361827623434</v>
+        <v>-0.02485038500601611</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03209245958488383</v>
+        <v>-0.01069741100664027</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04381082565173921</v>
+        <v>0.00525124500424648</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03847607321651798</v>
+        <v>0.02653590140546623</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02232157044229687</v>
+        <v>-0.00842701361525236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03588366101409635</v>
+        <v>0.007467350734561409</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02714518153973237</v>
+        <v>0.01391657144623048</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03512107992730817</v>
+        <v>-0.00611552577086045</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.03431319852891958</v>
+        <v>-0.005805593879939626</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.002907509193913839</v>
+        <v>0.01665091594663428</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02485038500601611</v>
+        <v>-0.005654068694068138</v>
       </c>
       <c r="H22" t="n">
-        <v>0.00525124500424648</v>
+        <v>-0.0009758016868043869</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01069741100664027</v>
+        <v>0.01651927863062746</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02653590140546623</v>
+        <v>0.01429961469437595</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.00842701361525236</v>
+        <v>0.005371450977278799</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007467350734561409</v>
+        <v>0.0341330416979284</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01391657144623048</v>
+        <v>0.04175442804543954</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00611552577086045</v>
+        <v>-0.02389159399192667</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.005805593879939626</v>
+        <v>-0.03341252292441142</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01665091594663428</v>
+        <v>0.004983723674594771</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005654068694068138</v>
+        <v>-0.03105962474839507</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01651927863062746</v>
+        <v>0.01472248530715459</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0009758016868043869</v>
+        <v>0.01410958657295588</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01429961469437595</v>
+        <v>0.01982260212861907</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005371450977278799</v>
+        <v>0.01834509241285869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0341330416979284</v>
+        <v>0.04495519820120093</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04175442804543954</v>
+        <v>0.02936306788569699</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.02389159399192667</v>
+        <v>-0.04340479818197116</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03341252292441142</v>
+        <v>-0.04004520798902429</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004983723674594771</v>
+        <v>0.003434806486355475</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03105962474839507</v>
+        <v>-0.02377119095382773</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01410958657295588</v>
+        <v>-0.004845506034935894</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01472248530715459</v>
+        <v>-0.003423527978714688</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01982260212861907</v>
+        <v>0.02171146846546582</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01834509241285869</v>
+        <v>0.01420786096185826</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04495519820120093</v>
+        <v>0.02933229283027089</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02936306788569699</v>
+        <v>0.02457487905906961</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.04340479818197116</v>
+        <v>-0.02608176110748906</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.04004520798902429</v>
+        <v>-0.02511861222645731</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003434806486355475</v>
+        <v>0.004460662803079034</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02377119095382773</v>
+        <v>-0.02573036551312972</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.003423527978714688</v>
+        <v>-0.006824608623611578</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.004845506034935894</v>
+        <v>-0.00680528916493512</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02171146846546582</v>
+        <v>0.01071856540240546</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01420786096185826</v>
+        <v>0.01078232035024477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02933229283027089</v>
+        <v>0.02991270579438349</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02457487905906961</v>
+        <v>0.006428961036457626</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02608176110748906</v>
+        <v>-0.02790367769304026</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.02511861222645731</v>
+        <v>-0.02644069262883066</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004460662803079034</v>
+        <v>0.008895460473778934</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02573036551312972</v>
+        <v>-0.02553462172592909</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.00680528916493512</v>
+        <v>-0.005209356334479279</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.006824608623611578</v>
+        <v>-0.001665417457409151</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01071856540240546</v>
+        <v>0.02339010650123465</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01078232035024477</v>
+        <v>-0.0009271985480067794</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02991270579438349</v>
+        <v>0.02825852739297622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006428961036457626</v>
+        <v>0.0206121380540561</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.02790367769304026</v>
+        <v>-0.02676530099241296</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.02644069262883066</v>
+        <v>-0.02665195044354929</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008895460473778934</v>
+        <v>-0.001327633084033074</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.02553462172592909</v>
+        <v>-0.02715430944057476</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.001665417457409151</v>
+        <v>-0.00609837841718474</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.005209356334479279</v>
+        <v>-0.001246089773860422</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02339010650123465</v>
+        <v>0.01265642106063213</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0009271985480067794</v>
+        <v>0.04124501870631458</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02825852739297622</v>
+        <v>0.01187689280870447</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0206121380540561</v>
+        <v>0.0132518311060589</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02676530099241296</v>
+        <v>-0.01085384725614979</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.02665195044354929</v>
+        <v>-0.01052005429251503</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.001327633084033074</v>
+        <v>0.00239062311486247</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02715430944057476</v>
+        <v>-0.01043581910364291</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.001246089773860422</v>
+        <v>0.004657793955596656</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.00609837841718474</v>
+        <v>0.06014107344028678</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01265642106063213</v>
+        <v>0.001076475066943272</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04124501870631458</v>
+        <v>0.00754058291945083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01187689280870447</v>
+        <v>0.009927883029420407</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0132518311060589</v>
+        <v>0.005745875377619209</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01085384725614979</v>
+        <v>-0.009171311061012311</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.01052005429251503</v>
+        <v>-0.009495696324764007</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00239062311486247</v>
+        <v>-0.001296296478804687</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01043581910364291</v>
+        <v>-0.007872667782949871</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06014107344028678</v>
+        <v>-0.001930623561095759</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004657793955596656</v>
+        <v>0.04999349457531189</v>
       </c>
       <c r="J29" t="n">
-        <v>0.001076475066943272</v>
+        <v>0.0181095001481496</v>
       </c>
       <c r="K29" t="n">
-        <v>0.00754058291945083</v>
+        <v>0.009462698688031195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B30" t="n">
-        <v>0.009927883029420407</v>
+        <v>0.01703199654883316</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005745875377619209</v>
+        <v>0.009534088590823081</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.009171311061012311</v>
+        <v>-0.0146664137734833</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.009495696324764007</v>
+        <v>-0.01334142632210946</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.001296296478804687</v>
+        <v>0.004588636339405244</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.007872667782949871</v>
+        <v>-0.01507216311463591</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04999349457531189</v>
+        <v>0.01279083748734322</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.001930623561095759</v>
+        <v>0.02398679124983823</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0181095001481496</v>
+        <v>0.01664343642101922</v>
       </c>
       <c r="K30" t="n">
-        <v>0.009462698688031195</v>
+        <v>0.02560899382255618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01703199654883316</v>
+        <v>0.05706954721860134</v>
       </c>
       <c r="C31" t="n">
-        <v>0.009534088590823081</v>
+        <v>0.00450234702261567</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0146664137734833</v>
+        <v>-0.05447684248415809</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.01334142632210946</v>
+        <v>-0.05176859529912999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.004588636339405244</v>
+        <v>0.01123656676321896</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.01507216311463591</v>
+        <v>-0.05227264681607975</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02398679124983823</v>
+        <v>-2.069772901061584e-05</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01279083748734322</v>
+        <v>0.02422725227582053</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01664343642101922</v>
+        <v>0.0341630635869631</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02560899382255618</v>
+        <v>0.03905670816159951</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0160572780851642</v>
+        <v>0.006904628982990795</v>
       </c>
       <c r="C32" t="n">
-        <v>0.034210337304295</v>
+        <v>-0.001224217200737769</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01346457335072096</v>
+        <v>-0.006656567463733993</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.01075632616569286</v>
+        <v>-0.005256918499245026</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01585761553185704</v>
+        <v>-0.002338418937328772</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.01126037768264262</v>
+        <v>-0.001786567815526079</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02159666097834723</v>
+        <v>-0.003412235428493037</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01699069819894258</v>
+        <v>-5.265187301774481e-05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.02956890190224913</v>
+        <v>-0.0020783741567359</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03339327136538517</v>
+        <v>-0.005461627539989255</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/volatility.xlsx
+++ b/Bot_screening/volatility.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,718 +475,4050 @@
           <t>ripple</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>binance-usd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>cardano</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>solana</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dogecoin</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>polkadot</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>shiba-inu</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>dai</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>staked-ether</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>matic-network</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tron</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>avalanche-2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>uniswap</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>wrapped-bitcoin</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>okb</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>leo-token</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>chainlink</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>litecoin</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ethereum-classic</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>cosmos</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ftx-token</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>near</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>crypto-com-chain</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>monero</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>algorand</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>bitcoin-cash</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>terra-luna</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>quant-network</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>flow</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>apecoin</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>vechain</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>filecoin</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>chain-2</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>internet-computer</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0183613074116446</v>
+        <v>0.008307520443910454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005143081151168349</v>
+        <v>-0.001764747894476233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0020468558536616</v>
+        <v>-0.008307520443910454</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0020468558536616</v>
+        <v>-0.008307520443910454</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0107540158944923</v>
+        <v>-0.005472852454398719</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0183613074116446</v>
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.005764608810089667</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.002625702262092288</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.003381412069526234</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.000585932624443365</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.01669247955608948</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.005224272756346257</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.005018046759700027</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.006576529291198617</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.004385951816459378</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.002762590257196627</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.005240035781333859</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.005673961376942949</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.00214229233047024</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.005727567275387754</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.004548121947669842</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.003381412069526231</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>8.241163759170091e-05</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.001666485840624766</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.008418883379267423</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.006439913056485789</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.01210064282139575</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.004123420025500424</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.004811016947407062</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.008307520443910454</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.008307520443910454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04495519820120093</v>
+        <v>0.02933229283027089</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01499062169702406</v>
+        <v>-0.003371766343517522</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.004138871670588656</v>
+        <v>0.01148403370034138</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.004138871670588656</v>
+        <v>0.01148403370034138</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02700226207359922</v>
+        <v>-0.0123177089011888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01754480179879912</v>
+        <v>0.03316770716972915</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.008924129564964689</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01612225262427459</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.01100106653444286</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.0151277473757254</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.007844689524485672</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.008924129564964689</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.002680068914145711</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.004942048927831937</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.006534365369131004</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.009851773349751469</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.02785912580157168</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.01091124019869207</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.04991299018859713</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.0141807776787557</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.01809212797451965</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.00768727118524919</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.01176359758068809</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.01286522696200734</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02355232255434461</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.003781393817157478</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.02010527333166363</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2447093572559474</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.00619429955989095</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03066770716972907</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.00849895949693762</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.01534627884425695</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.02933229283027089</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.01016296375678852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02933229283027089</v>
+        <v>0.02991270579438349</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.003371766343517522</v>
+        <v>-0.009028567362380162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01148403370034138</v>
+        <v>0.01090362073622878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01148403370034138</v>
+        <v>0.01090362073622878</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0123177089011888</v>
+        <v>-0.01450908739723168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03316770716972915</v>
+        <v>0.03258729420561655</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.01090362073622878</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.015541839660162</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0004490513115597734</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.02991270579438349</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.01272072871701964</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.01662366924953303</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01090362073622878</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.009743987996257558</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.04325802591293354</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02991270579438349</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.001169823680428887</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.00351006553035698</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.02879746341437221</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.01020179909267516</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.00909438640419806</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.005447873990102044</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.03983738745440432</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.002257143255100028</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.02353557006768547</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.01782811364936842</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.003106162130144849</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.02991270579438349</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.02991270579438349</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.007538459502666288</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.04151586563418798</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.007488038660536319</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.4364920905669977</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.007440795682023896</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.01959224470066601</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.008545184426862064</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.02991270579438349</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.01938639000490974</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.02991270579438349</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.0005009410885011278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02991270579438349</v>
+        <v>0.02825852739297622</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.009028567362380162</v>
+        <v>-0.005790044269755327</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01090362073622878</v>
+        <v>0.01255779913763605</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01090362073622878</v>
+        <v>0.01255779913763605</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01450908739723168</v>
+        <v>-0.01375000363526866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03258729420561655</v>
+        <v>0.03424147260702382</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.007850364127670019</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.01160253764281608</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.01962879655068569</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.0150353868971085</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01255779913763605</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.002470797805864355</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.005531254665703405</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.01667958002455512</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.01981839568394681</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.02653656734365141</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.007128104323930729</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.0744030695651987</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.02547281589060587</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.05330926921719338</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.006720065854514626</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.01764311195128613</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.01463248651485359</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.01001898456874615</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.00655702293285108</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.01357804380057553</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.2208482964726902</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.008018734537492491</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01214551301106421</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01123725079723147</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.007279506413955302</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.02825852739297622</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.002199895471152014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02825852739297622</v>
+        <v>0.01187689280870447</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.005790044269755327</v>
+        <v>0.002670334366644912</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01255779913763605</v>
+        <v>0.008123107191295475</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01255779913763605</v>
+        <v>0.008123107191295475</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01375000363526866</v>
+        <v>0.003347117630616986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03424147260702382</v>
+        <v>0.05062310719129558</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.008123107191295475</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03160136806086078</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000984843525700713</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.004697692826654604</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01118735760315724</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.008123107191295475</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.004766971011812835</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.01085037991856835</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.006246774568694232</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.007170726238914528</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.01102717139522443</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.002261924672015253</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.02614592087950857</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.0002150852285295705</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01593767672771933</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.001402462740928822</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.0254607695289579</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.003505507724990659</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.002546184114372548</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01325468613866398</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01846270381256772</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1222464113300556</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01208166536094803</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01937310719129545</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.00939970293597644</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1374286627468511</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01187689280870447</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.05564722294692244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01187689280870447</v>
+        <v>0.009927883029420407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002670334366644912</v>
+        <v>-0.00354709925011145</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008123107191295475</v>
+        <v>0.01007211697057953</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008123107191295475</v>
+        <v>0.01007211697057953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003347117630616986</v>
+        <v>-0.005217634670870587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05062310719129558</v>
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.01007211697057953</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.07340545030391284</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01556606215859736</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.009302886201348842</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.05609466125399337</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01007211697057953</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.001918413706082492</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.01279938969785241</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.0005873640788866645</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.02161785829550063</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.008647245093500336</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.0122363933721441</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.009302886201348877</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.04224603001405786</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.0293602297979805</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.003685978356718135</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.02504826959379103</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.003862682119640288</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.0004040735056109104</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.0007459852833367614</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.05673878363724619</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.002281715071308778</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.09065302983365009</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.01620341078829785</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.0104802802358858</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.002624418225809683</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.04455929645775902</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.009927883029420407</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.01499423535064183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B8" t="n">
-        <v>0.009927883029420407</v>
+        <v>0.01703199654883316</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00354709925011145</v>
+        <v>0.005888239506754149</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01007211697057953</v>
+        <v>0.002968003451166781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01007211697057953</v>
+        <v>0.002968003451166781</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005217634670870587</v>
+        <v>-0.006093597009397397</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.009927883029420407</v>
+        <v>0.04546800345116688</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.002968003451166781</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.006311852031608431</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02668385044570239</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01667586861970621</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.002968003451166781</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.005634268558736617</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.005695276178439658</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.006397183429867694</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.008204596511103678</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.01641461562480305</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.005343684860521468</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.01385603433919764</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.01378032838113882</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.005672510963687826</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.124231943971613</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.01113701753567389</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.004153208670045214</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.006891448427243325</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01014821728602453</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.04963467011783344</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.04324568716264676</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.4267432695183231</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.0007872652246076264</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.02507326660906146</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.004154444129133</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.02601436106706084</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.01703199654883316</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.02578145910865924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01703199654883316</v>
+        <v>0.05706954721860134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005888239506754149</v>
+        <v>-0.009112507179818034</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002968003451166781</v>
+        <v>0.002930452781398626</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002968003451166781</v>
+        <v>0.002930452781398626</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.006093597009397397</v>
+        <v>-0.0295914865079122</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04546800345116688</v>
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.002930452781398626</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.01706954721860145</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0006944279366781492</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.01074802133304266</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.03477655358802817</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.002930452781398626</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.0126085596815397</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.01161500176405585</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.01360555826663085</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.01002310453858706</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.05635303419527658</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.007069547218601292</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.01039077024171604</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.01212572699388221</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.006182429405668065</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.08408783515024668</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.02491520638258857</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.04585878488676275</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0187598366676545</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.02809337207372041</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.00133943311243305</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.2297593263871318</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.03317288414002222</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.01451635572923961</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.009243460262079617</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.003378272050816068</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.05706954721860134</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.003906062537496216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05706954721860134</v>
+        <v>0.02022385758904038</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.009112507179818034</v>
+        <v>0.01792493885553657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002930452781398626</v>
+        <v>0.01823768087249811</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002930452781398626</v>
+        <v>0.01823768087249811</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0295914865079122</v>
+        <v>-0.006184748642689829</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05706954721860134</v>
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.001355933060738543</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02144280907762632</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01148345948413033</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.01539258076712413</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.005172967807785096</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01823768087249811</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01949631341756669</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.003031956364447929</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.003561044168974119</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.002429864093807545</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.01818269975052336</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.04902821997328653</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.03201494838110893</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.01093761549877831</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.008837767060819627</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.04822355476488286</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.01842348540612859</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.002313409827846398</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.03585090876609978</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.01762395989744253</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.04644280907762622</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.005280942881182811</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3687696093581415</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.03757961061905217</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.01169103602798096</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.01074959373839329</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.01693830457312177</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.02022385758904038</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.007215166801203533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02022385758904038</v>
+        <v>0.01679642547442987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01792493885553657</v>
+        <v>0.01455730959377775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01823768087249811</v>
+        <v>-0.01679642547442987</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01823768087249811</v>
+        <v>-0.01679642547442987</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.006184748642689829</v>
+        <v>0.009673127499874926</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02022385758904038</v>
+        <v>0.04202710393733487</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.02487024119223682</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0153273103970752</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.004766916843629371</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002251193573189116</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.002434343756339441</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.01314679219118528</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.006459388479058439</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.003779706212812987</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.0009234096014139534</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.01574732601819969</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.1980912149750084</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.03663868902938677</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.04105481419499168</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.0008154666168983596</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.0178702411922369</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1197812825318497</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.005652294716628946</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.04542579674779242</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.006031071283028086</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.04987024119223673</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0816834159003223</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.3294977288097592</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.04245534398967526</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.02444068792763202</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.01390532891153496</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.0001851297933667014</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.01679642547442987</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.001275863682196589</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01679642547442987</v>
+        <v>0.1057907764190364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01455730959377775</v>
+        <v>-0.04600782913717922</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01679642547442987</v>
+        <v>0.0005922023043678643</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01679642547442987</v>
+        <v>0.0005922023043678643</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009673127499874926</v>
+        <v>-0.04214909879226449</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04202710393733487</v>
+        <v>0.01920922358096369</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0005922023043678643</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.0188342546799059</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.02291784824224086</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.1057907764190364</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.05084572147398145</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.0004396058504745337</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.0005922023043678643</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.05121934049123178</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.03262004471171936</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.1057907764190364</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.03744167021504065</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.03602333455857119</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.1033086306260529</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.03540093342552311</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.004095861164799153</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.0229178482422409</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.05048801128077958</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.0404168152001998</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.04062210791478488</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.05438890726015782</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.01119618182444182</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1057907764190364</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.1057907764190364</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.02765937360521309</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.0391241097523698</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.03326861687028526</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.3535001645270629</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.008359060153239381</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.04393510631594364</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.005790776419036317</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1057907764190364</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.07189247133429072</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.2275425569142969</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.0659134758055395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1057907764190364</v>
+        <v>0.01765780920635912</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04600782913717922</v>
+        <v>-0.002355685570176333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0005922023043678643</v>
+        <v>0.004081321228423425</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005922023043678643</v>
+        <v>0.004081321228423425</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04214909879226449</v>
+        <v>-0.004181904709508374</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01920922358096369</v>
+        <v>0.04484219079364092</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.004081321228423425</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.06929871253277137</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.0009188135460988026</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00184079803598073</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.01062838047750118</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.004081321228423425</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.001411626930866949</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.006732434696079832</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.008741346020673564</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.01214351529695214</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.01596494827137904</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.0006428443884121393</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.02996123841268848</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.01855388995798625</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.04017604988932955</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.01007374930722941</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.01907688467119191</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.00822384694220812</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.01870582715727726</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.01326440847515563</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.01312653662629204</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.1206701287207771</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.009909530860980949</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.01327002584518732</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.01251460458674436</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.01305891434312894</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.01765780920635912</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.009697813893944834</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01765780920635912</v>
+        <v>0.01672640438105623</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.002355685570176333</v>
+        <v>0.003791444782341842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004081321228423425</v>
+        <v>0.005012726053726324</v>
       </c>
       <c r="E14" t="n">
-        <v>0.004081321228423425</v>
+        <v>0.005012726053726324</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.004181904709508374</v>
+        <v>-0.005476404381056198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04484219079364092</v>
+        <v>0.04577359561894381</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.005012726053726324</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.01961444774926966</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.000127528203213545</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.02199413433948253</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.005012726053726324</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.003884516597643325</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.007663839521382731</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.008832701050253723</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.009763661844109262</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.01483182172525413</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.004635411373282834</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.009474468981389116</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.00531216311205681</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.01468540093478788</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.004585990459100724</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.02741152665342656</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.008078605638917736</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.04290662314187951</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.002376585652166259</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.005495817841166071</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.1334470185541271</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03176857889653566</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.004106928952277048</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.1347887471340953</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.06574782242306743</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-0.01672640438105623</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03542083488274739</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01672640438105623</v>
+        <v>0.03771158398570375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003791444782341842</v>
+        <v>0.02050004277504239</v>
       </c>
       <c r="D15" t="n">
-        <v>0.005012726053726324</v>
+        <v>-0.01548936176348159</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005012726053726324</v>
+        <v>-0.01548936176348159</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.005476404381056198</v>
+        <v>0.003856384227026527</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04577359561894381</v>
+        <v>0.02478841601429629</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.01548936176348159</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.005766676883861496</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.03824572925974509</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.03771158398570375</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.005766676883861586</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.01482782056771131</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01548936176348159</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.02066205527293365</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.01228841601429611</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.03771158398570375</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.007304493184714191</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.01991553465836398</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.03515003923887563</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.002178374748821772</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.02084697457285477</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.03433452552438275</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.02405742186224942</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.00798261636579007</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.02905184126828743</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.01211158398570382</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.04062942983918108</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.03771158398570375</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.03771158398570375</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.01317854802250331</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.03371698744286772</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.01601820213844862</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.3094773497950263</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.02403508550044568</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.02680454504655429</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.05433862521931714</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.03771158398570375</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.01022017505099592</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.03771158398570375</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.0233816636027206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03771158398570375</v>
+        <v>0.1126301382578582</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02050004277504239</v>
+        <v>-0.08095593011306176</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01548936176348159</v>
+        <v>0.001006225378505393</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01548936176348159</v>
+        <v>0.001006225378505393</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003856384227026527</v>
+        <v>-0.05424943461674591</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02478841601429629</v>
+        <v>-0.0501301382578582</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.001006225378505393</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.06717559280331276</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.06512562833603017</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.1126301382578582</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0801817606767373</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.07220834563922902</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.001006225378505393</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.08074003645484082</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.06263013825785838</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-0.1126301382578582</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.07194491341845788</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-0.08180822044963905</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-0.110624122213738</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.06116977664450632</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-0.008557740067813041</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-0.09222197499255209</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.01365653121973513</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0.06815898441170434</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.06299510176150777</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.08885834744961746</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.06193889401822679</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.08736986174214169</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.1126301382578582</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.07385405252745778</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.04120156682928677</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.08681018012806066</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.2432113133670396</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>-0.05602230356134506</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>-0.06818569381341393</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-0.02929680492452502</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-0.1126301382578582</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-0.07376088030732822</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-0.1126301382578582</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-0.05074088744352589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1126301382578582</v>
+        <v>0.02810360253253317</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.08095593011306176</v>
+        <v>-0.005904205986343166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001006225378505393</v>
+        <v>-0.007695439267226965</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001006225378505393</v>
+        <v>-0.007695439267226965</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.05424943461674591</v>
+        <v>-0.01062389800536273</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0501301382578582</v>
+        <v>0.03439639746746687</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.007695439267226965</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01537465833703208</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00186581642771148</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.02810360253253317</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.005246459675390374</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.007969374344613776</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.007695439267226965</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0003851089551110097</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.004294078723009263</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.02810360253253317</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.008872833301763933</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-0.004692231295074949</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.0265361494684879</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-2.873622237263562e-05</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.01870490810576481</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.03206831723824038</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.002168155293404216</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.04767987325094254</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.0114858402827161</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.008520601289122909</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.00983876234988482</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.1718963974674668</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.02810360253253317</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.02219596553211783</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.02810360253253317</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.01005926501749636</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.2690284399772935</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.0005502832642096389</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.004863430434499702</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.04100208852437732</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-0.02810360253253317</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.01080256447024939</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.02810360253253317</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.01662483197225904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02810360253253317</v>
+        <v>0.0274532216481146</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.005904205986343166</v>
+        <v>0.04473535909364704</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007695439267226965</v>
+        <v>0.01336310488249767</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.007695439267226965</v>
+        <v>0.01336310488249767</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01062389800536273</v>
+        <v>-0.007393187970685802</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03439639746746687</v>
+        <v>0.03504677835188544</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.01336310488249767</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01602503922145064</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.01191685709204298</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.0274532216481146</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.004661198856091873</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.0003804636108896524</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01336310488249767</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.04230077754532537</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.003643697838590695</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.0274532216481146</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.008119172238877218</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.002849808654915707</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.02394193565843669</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.006428254499625686</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.06041288713849614</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.005972962195896599</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.01321414018713057</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0562054509676132</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.1292631962623331</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.00438351304576293</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.01927575031450222</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.1725467783518853</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.0274532216481146</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.001033502187403636</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.0274532216481146</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.004078370940044311</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.1632972984350987</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.04256956683334399</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.005880111685218636</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.02093387512607881</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.0274532216481146</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.003231768360917341</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.0274532216481146</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.008730988878201177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0274532216481146</v>
+        <v>0.02077760551974315</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04473535909364704</v>
+        <v>0.0173503358176763</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01336310488249767</v>
+        <v>-0.000777605519743204</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01336310488249767</v>
+        <v>-0.000777605519743204</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.007393187970685802</v>
+        <v>0.002525776757998095</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03504677835188544</v>
+        <v>0.0417223944802569</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.000777605519743204</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0227006553498221</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.01777808603472436</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.00343656505731545</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.004951382473395882</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.000777605519743204</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01622965732884575</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.02800288228513493</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.01815454131006786</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.01004431228847604</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.01872941902655102</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.01442448052980054</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.01610764038189632</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.04138455664241907</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.009644728052196728</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.09020370289147185</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.08406110415767629</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.0133884429581667</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.001820259548179218</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.01712087580465136</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.01066787207958053</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.3174447235657742</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.04054684589091515</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.001949667207529673</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.04701900464974842</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.003476567457459362</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.02077760551974315</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.02198555237499366</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02077760551974315</v>
+        <v>0.02357712942608776</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0173503358176763</v>
+        <v>-0.001174781581772099</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.000777605519743204</v>
+        <v>-0.003577129426087823</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.000777605519743204</v>
+        <v>-0.003577129426087823</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002525776757998095</v>
+        <v>-0.01542181764779675</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0417223944802569</v>
+        <v>0.09406992939744172</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.003577129426087823</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0009928951439367346</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.0005223743828600066</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.006453841754854948</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.003577129426087823</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.003781201079511236</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.01371951715883694</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-0.006570326704999283</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.02128990999133766</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.003011576726859033</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.003251926174055411</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.0286421917227373</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.007339714923592349</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.0004980320536538789</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.02957491012891836</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.01782055047871947</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-0.004797786703083121</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1764228705739121</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1764228705739121</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>-0.006505910434356686</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.001867740023438178</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.08793439569800281</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.007437908167897238</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>-0.01246601831497669</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.03174201951008253</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-0.01333822157625853</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.02357712942608776</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-0.007551488400446695</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02357712942608776</v>
+        <v>0.02312905531029007</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.001174781581772099</v>
+        <v>0.02129636733041171</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003577129426087823</v>
+        <v>-0.003129055310290129</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.003577129426087823</v>
+        <v>-0.003129055310290129</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01542181764779675</v>
+        <v>-0.01395606867251467</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09406992939744172</v>
+        <v>0.08798205580082111</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.003129055310290129</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.02312905531029007</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.003026662451267016</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-0.02312905531029007</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01477181932527842</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.00445715158626174</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.003129055310290129</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.02028538931003148</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.001870944689709858</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.02312905531029007</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.006738201326878079</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.004268204963682454</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.02111299900500382</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.000277966796341924</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.05314213113038792</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-0.005452287633522374</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.002294673503269257</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.03338200120076634</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.04866581648458181</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.01406809979134448</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.01478563663283792</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.1768709446897098</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-0.02312905531029007</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.004546472978735158</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.04353761135637653</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.0149338163974415</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.08625477736353708</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.03131981587164884</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.01057880985824932</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.09149545061856368</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-0.02312905531029007</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-0.005828017248006287</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.02312905531029007</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.003014735539383057</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02312905531029007</v>
+        <v>0.06859860907942185</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02129636733041171</v>
+        <v>-0.04163539564736929</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.003129055310290129</v>
+        <v>-0.009775079667657172</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.003129055310290129</v>
+        <v>-0.009775079667657172</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01395606867251467</v>
+        <v>-0.04051200872833929</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08798205580082111</v>
+        <v>0.04251250203168933</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.009775079667657172</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-0.0251203482098566</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.01054617462249301</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.06859860907942185</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.02617436665517938</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.004613234307941069</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.009775079667657172</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.04281648781394091</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.0429575834383961</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.06859860907942185</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.01407424713046599</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.02574146622227892</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.06552619828515899</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.04006423813259954</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.00374181645249308</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-0.01846668295804974</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-0.01140303712370239</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.01523372624991949</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.03534875934163073</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.0320840862578451</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.003921992163999008</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.1314013909205781</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.06859860907942185</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.02398322446403726</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.06473472425391145</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>-0.04464443445696045</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.1218912424589845</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>-0.01494193541129124</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-0.02153978555001022</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.06550100777881564</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-0.06859860907942185</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.001771761290948429</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-0.06859860907942185</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.0372034387021481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06859860907942185</v>
+        <v>0.04141167823983127</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.04163539564736929</v>
+        <v>-0.01284805337639612</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.009775079667657172</v>
+        <v>-0.002195991965321442</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.009775079667657172</v>
+        <v>-0.002195991965321442</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.04051200872833929</v>
+        <v>-0.01285893194514954</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04251250203168933</v>
+        <v>0.1164830586022739</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.002195991965321442</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.002066582629733978</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.0252149175919609</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.04141167823983127</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.01371937054752357</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.02891167823983131</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.002195991965321442</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.01002251939386153</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.04141167823983127</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.04141167823983127</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.02312596395411703</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.0199831068112597</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.03966463139012541</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.00083576200946478</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.005001823869873474</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.01127469193846141</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.008165507152793662</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.01174786808821616</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.03633631103630814</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.03331451224792841</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.02677753189836789</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.1585883217601687</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.04141167823983127</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.008817902948425341</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.08358832176016881</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.001572433088686778</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.01439396190315825</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.01806609000453724</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.005099949667145505</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.01621544040423646</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.04141167823983127</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.02707476067710729</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.04141167823983127</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.01552171060229071</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04141167823983127</v>
+        <v>0.04487876724848154</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01284805337639612</v>
+        <v>-0.02463399344186132</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002195991965321442</v>
+        <v>-0.005663080973971717</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.002195991965321442</v>
+        <v>-0.005663080973971717</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01285893194514954</v>
+        <v>-0.02537432456987133</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1164830586022739</v>
+        <v>0.05512123275151834</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.02564799801771223</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-0.001400506378916297</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.01069073306044731</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.04487876724848154</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.01420392062271476</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.02306058543029961</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.005663080973971717</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.02503342505002813</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.0185629777747974</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.04487876724848154</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.01412705882023552</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-0.002021624391338607</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.02256117326291623</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.02036263821622344</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.09797837560866128</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-0.02277931973466945</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.01068759077789339</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.01360797549864791</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.004708009611022607</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.03262386528769719</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.009525231894946147</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1551212327515184</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.04487876724848154</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.01314142114725029</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.08012123275151854</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.01557723402872014</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.08303549261650568</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>-0.008318812711637355</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.00163286065849523</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.0503593279896138</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>-0.04487876724848154</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>-0.01578785815757253</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-0.04487876724848154</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>-0.01546700254259918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04487876724848154</v>
+        <v>0.04509489978127191</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.02463399344186132</v>
+        <v>-0.006135798630851841</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.005663080973971717</v>
+        <v>-0.006633361319733425</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.005663080973971717</v>
+        <v>-0.006633361319733425</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02537432456987133</v>
+        <v>-0.01686246464439824</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05512123275151834</v>
+        <v>0.09776224307587106</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.006633361319733425</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-0.04509489978127191</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.02941335575232138</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.04509489978127191</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.017655875391028</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.02175558200748384</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.006633361319733425</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.006145583538098284</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.01877911030758777</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.04509489978127191</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.0136342256239685</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.01806299495557021</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.04363376798998844</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.02061036369879764</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.06844221812265824</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-0.02287267755904975</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-0.02837978350220213</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.01274988630418306</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.04479274066816635</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.02778245130641621</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-0.009197463883835973</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.154905100218728</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-0.04509489978127191</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.02544124392640661</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.1313756884540223</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.01437527995778233</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.02763237294600088</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>-0.01313058088143928</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>-0.03373126341763558</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.02537489887644629</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>-0.04509489978127191</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>-0.01295204263841476</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.2882384335520614</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>-0.0164324793991063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04509489978127191</v>
+        <v>0.04345815699051585</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.006135798630851841</v>
+        <v>-0.0227441019683485</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.006633361319733425</v>
+        <v>0.01536537242124882</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.006633361319733425</v>
+        <v>-0.00424247071600603</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01686246464439824</v>
+        <v>-0.01782980341807866</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09776224307587106</v>
+        <v>0.07654184300948408</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01536537242124882</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-0.001791490323849163</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.02248751588805924</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.04345815699051585</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.02237381964111824</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.005891072911803998</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.00424247071600603</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.02300240399447125</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.01781713134949011</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.04345815699051585</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.0160157859696597</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.01416896165355187</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-0.04105740719475497</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.02668396344212877</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1869565895532629</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.003117185475237663</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.004195535261212059</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0.01898500947182109</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.03548921143053674</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.02705126609634026</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.002432515964874801</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.04345815699051585</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1232085096761508</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.01281939348347164</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.06180500090422087</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.007690147630662829</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.05642676821086496</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.01358317459729034</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>-0.009367247899606704</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.01456232082518373</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>-0.04345815699051585</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>-0.01881026966657217</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-0.04345815699051585</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.007660053872103806</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04345815699051585</v>
+        <v>0.02621497919851031</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0227441019683485</v>
+        <v>-0.00352241973964049</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01536537242124882</v>
+        <v>-0.006984209967741004</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.00424247071600603</v>
+        <v>-0.006984209967741004</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.01782980341807866</v>
+        <v>0.01157226673289988</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07654184300948408</v>
+        <v>0.05378502080148959</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.006984209967741004</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-0.02621497919851031</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.04163162847110626</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.307118354134823</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.008196961180492346</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0748303169687371</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.006984209967741004</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.0008784788026273867</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.001214979198510383</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.02621497919851031</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.005762880167294038</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.009732733219790325</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.02362529003139164</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02183696885343778</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0290845599719967</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.05601313751236501</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.003362485590222036</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.004574846772038427</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.006752053768522559</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.0100468304515418</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.004397265699448927</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.1404516874681563</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.1404516874681563</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.0002299499181746129</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.02378502080148955</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.01604546306193187</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.07618929506685035</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.1029487344797322</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>-0.01497902414233042</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.01530751215097073</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>-0.02621497919851031</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.007683325886235354</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-0.02621497919851031</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>-0.001214979198510383</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02621497919851031</v>
+        <v>0.01233883083047302</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.00352241973964049</v>
+        <v>0.01931519085920907</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.006984209967741004</v>
+        <v>0.006891938400296289</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.006984209967741004</v>
+        <v>0.006891938400296289</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01157226673289988</v>
+        <v>-0.001346021095959665</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05378502080148959</v>
+        <v>0.06766116916952689</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.006891938400296289</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01471931539865764</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01510019355977089</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.02337545488381257</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.006891938400296289</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.01878119512746334</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.01330219481055273</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.003912523449050319</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.01736413946655669</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-0.009036964388010832</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.002698763154489345</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.04595713329508748</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.02974037709031901</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.0110488374898672</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0147955172833589</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.05968332983434688</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.004313148647487443</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.003045784554142323</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.00297963194834993</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.03766116916952684</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.03626424405793829</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.09616348151388845</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.03991251325554857</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.0103884418967998</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.0331157146240724</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.03868157733279224</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>-0.01233883083047302</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.02303094408914112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01233883083047302</v>
+        <v>0.03025288329503539</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01931519085920907</v>
+        <v>-0.01399807342217696</v>
       </c>
       <c r="D29" t="n">
-        <v>0.006891938400296289</v>
+        <v>-0.01102211406426608</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006891938400296289</v>
+        <v>-0.01102211406426608</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.001346021095959665</v>
+        <v>-0.01189080831074444</v>
       </c>
       <c r="G29" t="n">
-        <v>0.06766116916952689</v>
+        <v>0.09474711670496454</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.01102211406426608</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01322537757452985</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.005734494503441604</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.03025288329503539</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01547882402203774</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.003022072922127552</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.01102211406426608</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.01408045581367038</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.004611857654009646</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.03025288329503539</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.008153435781223177</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.02025216721001507</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.02859112644041361</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.01634643576026935</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.05425415895848575</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.0120356739188949</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.002043118376409733</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.003080450038297943</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.01899472272411647</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.02300650648344127</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.001326064073385574</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.03025288329503539</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.03025288329503539</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.01296297577593599</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.07501027459970133</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>-0.01525288329503542</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.6582583612353401</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.02755058491305718</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.005041234352023329</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.03992255530145583</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>-0.03025288329503539</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.01720474382360854</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-0.03025288329503539</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.0245858263823839</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03025288329503539</v>
+        <v>0.07011055908022258</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.01399807342217696</v>
+        <v>-0.0531859518422835</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01102211406426608</v>
+        <v>0.01152209398100196</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01102211406426608</v>
+        <v>0.01152209398100196</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.01189080831074444</v>
+        <v>-0.04250561021374191</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09474711670496454</v>
+        <v>0.01684596265890791</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01152209398100196</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-0.0246560136256771</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.03318207138971854</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.07011055908022258</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.03385678264517736</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.03261055908022271</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.01152209398100196</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.05102076962505869</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.04379476960653844</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.07011055908022258</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.04429686659986341</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01158878732500621</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.0678795929496159</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.02453764241355594</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.04811604190499903</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-0.05040612558268569</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.03865237995364967</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.03519435796290405</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-0.02276479150489986</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-0.04153913050879393</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-0.0322727212423847</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.07011055908022258</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-0.07011055908022258</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.03726630009516399</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-0.01455500352466699</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.03982299739909287</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.1113757892918027</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.03582024816854189</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-0.03439627336593681</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>-0.04511055908022255</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>-0.07011055908022258</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>-0.03939383553073452</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-0.07011055908022258</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>-0.02844389241355594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07011055908022258</v>
+        <v>0.0535269901924422</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0531859518422835</v>
+        <v>-0.02988841085637794</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01152209398100196</v>
+        <v>0.00529653921932248</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01152209398100196</v>
+        <v>0.00529653921932248</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.04250561021374191</v>
+        <v>-0.03698119000938235</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01684596265890791</v>
+        <v>0.03738210071664877</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.00529653921932248</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.008072444737896714</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.03047734480237129</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.0535269901924422</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.02294595043709043</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.03079971746516937</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00529653921932248</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.03120536455420844</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.02721120071875806</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.0535269901924422</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.02064717159833783</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.01660391326936521</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.05159827742035598</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.02694471171142958</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.01147091542608705</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.01543852704893706</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.02815934313361881</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.005538281653275003</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.009536072870620763</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.04211704724215702</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.01527562407222358</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.0535269901924422</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.0535269901924422</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.02772400672247844</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.00202856536311339</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.02068090248822892</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.0224876114824558</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.0592370681235352</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.01781270447815642</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.01004872932287691</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.0535269901924422</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.02649996316541506</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.0535269901924422</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.01145579278143882</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03088097661540061</v>
+        <v>0.02844803122974441</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.009880756947830801</v>
+        <v>-0.01745483793398211</v>
       </c>
       <c r="D32" t="n">
-        <v>0.007580561846137871</v>
+        <v>0.01076765504476541</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007580561846137871</v>
+        <v>0.01076765504476541</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.01433517643234076</v>
+        <v>-0.002007068722749455</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01259728425416463</v>
+        <v>0.06679006400835089</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.008840188092489563</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01700651422480107</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.009199027593785027</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.006975638591707578</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.01967610140518303</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.01076765504476541</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.0161484323994553</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.002132241756060273</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.01485799725465951</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.02124140976404427</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.027369870050154</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0007397860291388607</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.02418354771762399</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.007084963694113496</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.009684234320252037</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.01357550998328551</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.002039773648304287</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.0162727065544197</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.01205458860679364</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.004942949214581716</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.004896702012389627</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.0185577640052846</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.02524324393804084</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.06679006400835089</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>-0.006550221010766369</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.005222002440289163</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-0.02844803122974441</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>-0.008967511749224985</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_screening/volatility.xlsx
+++ b/Bot_screening/volatility.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,10 +511,10 @@
         <v>44808</v>
       </c>
       <c r="B2" t="n">
-        <v>0.009927883029420407</v>
+        <v>0.00839820026259259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006380783779308958</v>
+        <v>0.005727522655534135</v>
       </c>
       <c r="D2" t="n">
         <v>0.01999999999999994</v>
@@ -523,7 +523,7 @@
         <v>0.01999999999999994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00471024835854982</v>
+        <v>0.004281432852861373</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -535,13 +535,13 @@
         <v>0.08333333333333325</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02549394518801777</v>
+        <v>0.01004394224733205</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01923076923076925</v>
+        <v>0.008241758241758145</v>
       </c>
       <c r="M2" t="n">
         <v>0.06602254428341378</v>
@@ -1741,10 +1741,10 @@
         <v>44838</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0031508177048877</v>
+        <v>0.006653435693882365</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003013523744488738</v>
+        <v>0.006932589106779614</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002392835167840317</v>
+        <v>0.005270723526593124</v>
       </c>
       <c r="G32" t="n">
         <v>0.04347826086956524</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.007724301841948895</v>
+        <v>0.009523809523809497</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
